--- a/dros-pref-codons.xlsx
+++ b/dros-pref-codons.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23790" windowHeight="13920" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23790" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="11 species codon prefs" sheetId="1" r:id="rId1"/>
     <sheet name="12 species codon prefs" sheetId="3" r:id="rId2"/>
     <sheet name="5 species codon prefs" sheetId="2" r:id="rId3"/>
-    <sheet name="12 species anticodons" sheetId="4" r:id="rId4"/>
-    <sheet name="accuracy vs. ribosomal comp." sheetId="5" r:id="rId5"/>
+    <sheet name="accuracy vs. ribosomal comp." sheetId="5" r:id="rId4"/>
+    <sheet name="12 species anticodons" sheetId="4" r:id="rId5"/>
     <sheet name="4 species tRNAs" sheetId="7" r:id="rId6"/>
     <sheet name="Dmel anticodons" sheetId="8" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="211">
   <si>
     <t>aa</t>
   </si>
@@ -633,6 +633,27 @@
   <si>
     <t>GGC, GGU</t>
   </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>AGC,AGU</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
 </sst>
 </file>
 
@@ -6392,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U65536"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15"/>
@@ -12821,2590 +12842,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:P53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="10" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2">
-        <v>4</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6">
-        <v>6</v>
-      </c>
-      <c r="J6" s="6">
-        <v>6</v>
-      </c>
-      <c r="K6" s="6">
-        <v>11</v>
-      </c>
-      <c r="L6" s="6">
-        <v>8</v>
-      </c>
-      <c r="M6" s="6">
-        <v>12</v>
-      </c>
-      <c r="N6" s="6">
-        <v>8</v>
-      </c>
-      <c r="O6" s="6">
-        <v>8</v>
-      </c>
-      <c r="P6" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2">
-        <v>16</v>
-      </c>
-      <c r="N7" s="2">
-        <v>12</v>
-      </c>
-      <c r="O7" s="2">
-        <v>13</v>
-      </c>
-      <c r="P7" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6">
-        <v>14</v>
-      </c>
-      <c r="I8" s="6">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6">
-        <v>13</v>
-      </c>
-      <c r="K8" s="6">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6">
-        <v>11</v>
-      </c>
-      <c r="O8" s="6">
-        <v>10</v>
-      </c>
-      <c r="P8" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6">
-        <v>6</v>
-      </c>
-      <c r="J9" s="6">
-        <v>6</v>
-      </c>
-      <c r="K9" s="6">
-        <v>6</v>
-      </c>
-      <c r="L9" s="6">
-        <v>6</v>
-      </c>
-      <c r="M9" s="6">
-        <v>11</v>
-      </c>
-      <c r="N9" s="6">
-        <v>6</v>
-      </c>
-      <c r="O9" s="6">
-        <v>6</v>
-      </c>
-      <c r="P9" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2">
-        <v>7</v>
-      </c>
-      <c r="L10" s="2">
-        <v>7</v>
-      </c>
-      <c r="M10" s="2">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2">
-        <v>8</v>
-      </c>
-      <c r="O10" s="2">
-        <v>8</v>
-      </c>
-      <c r="P10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6">
-        <v>6</v>
-      </c>
-      <c r="G13" s="6">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6">
-        <v>6</v>
-      </c>
-      <c r="J13" s="6">
-        <v>6</v>
-      </c>
-      <c r="K13" s="6">
-        <v>6</v>
-      </c>
-      <c r="L13" s="6">
-        <v>6</v>
-      </c>
-      <c r="M13" s="6">
-        <v>6</v>
-      </c>
-      <c r="N13" s="6">
-        <v>6</v>
-      </c>
-      <c r="O13" s="6">
-        <v>6</v>
-      </c>
-      <c r="P13" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6">
-        <v>16</v>
-      </c>
-      <c r="G14" s="6">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6">
-        <v>15</v>
-      </c>
-      <c r="I14" s="6">
-        <v>14</v>
-      </c>
-      <c r="J14" s="6">
-        <v>16</v>
-      </c>
-      <c r="K14" s="6">
-        <v>14</v>
-      </c>
-      <c r="L14" s="6">
-        <v>13</v>
-      </c>
-      <c r="M14" s="6">
-        <v>12</v>
-      </c>
-      <c r="N14" s="6">
-        <v>14</v>
-      </c>
-      <c r="O14" s="6">
-        <v>14</v>
-      </c>
-      <c r="P14" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2">
-        <v>5</v>
-      </c>
-      <c r="L15" s="2">
-        <v>7</v>
-      </c>
-      <c r="M15" s="2">
-        <v>8</v>
-      </c>
-      <c r="N15" s="2">
-        <v>5</v>
-      </c>
-      <c r="O15" s="2">
-        <v>5</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6">
-        <v>10</v>
-      </c>
-      <c r="H16" s="6">
-        <v>10</v>
-      </c>
-      <c r="I16" s="6">
-        <v>9</v>
-      </c>
-      <c r="J16" s="6">
-        <v>11</v>
-      </c>
-      <c r="K16" s="6">
-        <v>10</v>
-      </c>
-      <c r="L16" s="6">
-        <v>11</v>
-      </c>
-      <c r="M16" s="6">
-        <v>9</v>
-      </c>
-      <c r="N16" s="6">
-        <v>8</v>
-      </c>
-      <c r="O16" s="6">
-        <v>9</v>
-      </c>
-      <c r="P16" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>2</v>
-      </c>
-      <c r="M17" s="6">
-        <v>4</v>
-      </c>
-      <c r="N17" s="6">
-        <v>2</v>
-      </c>
-      <c r="O17" s="6">
-        <v>2</v>
-      </c>
-      <c r="P17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>2</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2">
-        <v>11</v>
-      </c>
-      <c r="J19" s="2">
-        <v>17</v>
-      </c>
-      <c r="K19" s="2">
-        <v>13</v>
-      </c>
-      <c r="L19" s="2">
-        <v>14</v>
-      </c>
-      <c r="M19" s="2">
-        <v>10</v>
-      </c>
-      <c r="N19" s="2">
-        <v>12</v>
-      </c>
-      <c r="O19" s="2">
-        <v>12</v>
-      </c>
-      <c r="P19" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>7</v>
-      </c>
-      <c r="K20" s="2">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <v>4</v>
-      </c>
-      <c r="M20" s="2">
-        <v>8</v>
-      </c>
-      <c r="N20" s="2">
-        <v>7</v>
-      </c>
-      <c r="O20" s="2">
-        <v>12</v>
-      </c>
-      <c r="P20" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6">
-        <v>5</v>
-      </c>
-      <c r="H21" s="6">
-        <v>5</v>
-      </c>
-      <c r="I21" s="6">
-        <v>5</v>
-      </c>
-      <c r="J21" s="6">
-        <v>5</v>
-      </c>
-      <c r="K21" s="6">
-        <v>5</v>
-      </c>
-      <c r="L21" s="6">
-        <v>5</v>
-      </c>
-      <c r="M21" s="6">
-        <v>4</v>
-      </c>
-      <c r="N21" s="6">
-        <v>3</v>
-      </c>
-      <c r="O21" s="6">
-        <v>3</v>
-      </c>
-      <c r="P21" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4</v>
-      </c>
-      <c r="H22" s="6">
-        <v>4</v>
-      </c>
-      <c r="I22" s="6">
-        <v>4</v>
-      </c>
-      <c r="J22" s="6">
-        <v>4</v>
-      </c>
-      <c r="K22" s="6">
-        <v>4</v>
-      </c>
-      <c r="L22" s="6">
-        <v>3</v>
-      </c>
-      <c r="M22" s="6">
-        <v>7</v>
-      </c>
-      <c r="N22" s="6">
-        <v>6</v>
-      </c>
-      <c r="O22" s="6">
-        <v>5</v>
-      </c>
-      <c r="P22" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="6">
-        <v>8</v>
-      </c>
-      <c r="F23" s="6">
-        <v>9</v>
-      </c>
-      <c r="G23" s="6">
-        <v>8</v>
-      </c>
-      <c r="H23" s="6">
-        <v>8</v>
-      </c>
-      <c r="I23" s="6">
-        <v>7</v>
-      </c>
-      <c r="J23" s="6">
-        <v>10</v>
-      </c>
-      <c r="K23" s="6">
-        <v>9</v>
-      </c>
-      <c r="L23" s="6">
-        <v>10</v>
-      </c>
-      <c r="M23" s="6">
-        <v>9</v>
-      </c>
-      <c r="N23" s="6">
-        <v>6</v>
-      </c>
-      <c r="O23" s="6">
-        <v>7</v>
-      </c>
-      <c r="P23" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6">
-        <v>2</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2</v>
-      </c>
-      <c r="J24" s="6">
-        <v>2</v>
-      </c>
-      <c r="K24" s="6">
-        <v>2</v>
-      </c>
-      <c r="L24" s="6">
-        <v>2</v>
-      </c>
-      <c r="M24" s="6">
-        <v>2</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2</v>
-      </c>
-      <c r="O24" s="6">
-        <v>3</v>
-      </c>
-      <c r="P24" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4</v>
-      </c>
-      <c r="F25" s="6">
-        <v>3</v>
-      </c>
-      <c r="G25" s="6">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6">
-        <v>5</v>
-      </c>
-      <c r="I25" s="6">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>2</v>
-      </c>
-      <c r="L25" s="6">
-        <v>2</v>
-      </c>
-      <c r="M25" s="6">
-        <v>3</v>
-      </c>
-      <c r="N25" s="6">
-        <v>2</v>
-      </c>
-      <c r="O25" s="6">
-        <v>2</v>
-      </c>
-      <c r="P25" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2">
-        <v>12</v>
-      </c>
-      <c r="K27" s="2">
-        <v>11</v>
-      </c>
-      <c r="L27" s="2">
-        <v>12</v>
-      </c>
-      <c r="M27" s="2">
-        <v>15</v>
-      </c>
-      <c r="N27" s="2">
-        <v>12</v>
-      </c>
-      <c r="O27" s="2">
-        <v>12</v>
-      </c>
-      <c r="P27" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="6">
-        <v>10</v>
-      </c>
-      <c r="F28" s="6">
-        <v>7</v>
-      </c>
-      <c r="G28" s="6">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6">
-        <v>11</v>
-      </c>
-      <c r="I28" s="6">
-        <v>8</v>
-      </c>
-      <c r="J28" s="6">
-        <v>9</v>
-      </c>
-      <c r="K28" s="6">
-        <v>9</v>
-      </c>
-      <c r="L28" s="6">
-        <v>9</v>
-      </c>
-      <c r="M28" s="6">
-        <v>10</v>
-      </c>
-      <c r="N28" s="6">
-        <v>8</v>
-      </c>
-      <c r="O28" s="6">
-        <v>7</v>
-      </c>
-      <c r="P28" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="2">
-        <v>7</v>
-      </c>
-      <c r="F29" s="2">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2">
-        <v>6</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>4</v>
-      </c>
-      <c r="K29" s="2">
-        <v>4</v>
-      </c>
-      <c r="L29" s="2">
-        <v>6</v>
-      </c>
-      <c r="M29" s="2">
-        <v>7</v>
-      </c>
-      <c r="N29" s="2">
-        <v>6</v>
-      </c>
-      <c r="O29" s="2">
-        <v>4</v>
-      </c>
-      <c r="P29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30" s="2">
-        <v>8</v>
-      </c>
-      <c r="K30" s="2">
-        <v>4</v>
-      </c>
-      <c r="L30" s="2">
-        <v>4</v>
-      </c>
-      <c r="M30" s="2">
-        <v>4</v>
-      </c>
-      <c r="N30" s="2">
-        <v>3</v>
-      </c>
-      <c r="O30" s="2">
-        <v>3</v>
-      </c>
-      <c r="P30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>8</v>
-      </c>
-      <c r="I31" s="2">
-        <v>6</v>
-      </c>
-      <c r="J31" s="2">
-        <v>4</v>
-      </c>
-      <c r="K31" s="2">
-        <v>6</v>
-      </c>
-      <c r="L31" s="2">
-        <v>6</v>
-      </c>
-      <c r="M31" s="2">
-        <v>5</v>
-      </c>
-      <c r="N31" s="2">
-        <v>5</v>
-      </c>
-      <c r="O31" s="2">
-        <v>5</v>
-      </c>
-      <c r="P31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="6">
-        <v>8</v>
-      </c>
-      <c r="F32" s="6">
-        <v>8</v>
-      </c>
-      <c r="G32" s="6">
-        <v>8</v>
-      </c>
-      <c r="H32" s="6">
-        <v>8</v>
-      </c>
-      <c r="I32" s="6">
-        <v>8</v>
-      </c>
-      <c r="J32" s="6">
-        <v>8</v>
-      </c>
-      <c r="K32" s="6">
-        <v>7</v>
-      </c>
-      <c r="L32" s="6">
-        <v>7</v>
-      </c>
-      <c r="M32" s="6">
-        <v>6</v>
-      </c>
-      <c r="N32" s="6">
-        <v>7</v>
-      </c>
-      <c r="O32" s="6">
-        <v>7</v>
-      </c>
-      <c r="P32" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6">
-        <v>4</v>
-      </c>
-      <c r="F33" s="6">
-        <v>4</v>
-      </c>
-      <c r="G33" s="6">
-        <v>3</v>
-      </c>
-      <c r="H33" s="6">
-        <v>6</v>
-      </c>
-      <c r="I33" s="6">
-        <v>5</v>
-      </c>
-      <c r="J33" s="6">
-        <v>6</v>
-      </c>
-      <c r="K33" s="6">
-        <v>5</v>
-      </c>
-      <c r="L33" s="6">
-        <v>11</v>
-      </c>
-      <c r="M33" s="6">
-        <v>6</v>
-      </c>
-      <c r="N33" s="6">
-        <v>4</v>
-      </c>
-      <c r="O33" s="6">
-        <v>12</v>
-      </c>
-      <c r="P33" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2">
-        <v>9</v>
-      </c>
-      <c r="G34" s="2">
-        <v>9</v>
-      </c>
-      <c r="H34" s="2">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2">
-        <v>9</v>
-      </c>
-      <c r="J34" s="2">
-        <v>12</v>
-      </c>
-      <c r="K34" s="2">
-        <v>9</v>
-      </c>
-      <c r="L34" s="2">
-        <v>13</v>
-      </c>
-      <c r="M34" s="2">
-        <v>10</v>
-      </c>
-      <c r="N34" s="2">
-        <v>10</v>
-      </c>
-      <c r="O34" s="2">
-        <v>10</v>
-      </c>
-      <c r="P34" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>4</v>
-      </c>
-      <c r="G35" s="2">
-        <v>4</v>
-      </c>
-      <c r="H35" s="2">
-        <v>4</v>
-      </c>
-      <c r="I35" s="2">
-        <v>4</v>
-      </c>
-      <c r="J35" s="2">
-        <v>2</v>
-      </c>
-      <c r="K35" s="2">
-        <v>5</v>
-      </c>
-      <c r="L35" s="2">
-        <v>4</v>
-      </c>
-      <c r="M35" s="2">
-        <v>5</v>
-      </c>
-      <c r="N35" s="2">
-        <v>2</v>
-      </c>
-      <c r="O35" s="2">
-        <v>2</v>
-      </c>
-      <c r="P35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2">
-        <v>5</v>
-      </c>
-      <c r="G37" s="2">
-        <v>7</v>
-      </c>
-      <c r="H37" s="2">
-        <v>7</v>
-      </c>
-      <c r="I37" s="2">
-        <v>7</v>
-      </c>
-      <c r="J37" s="2">
-        <v>8</v>
-      </c>
-      <c r="K37" s="2">
-        <v>4</v>
-      </c>
-      <c r="L37" s="2">
-        <v>5</v>
-      </c>
-      <c r="M37" s="2">
-        <v>7</v>
-      </c>
-      <c r="N37" s="2">
-        <v>5</v>
-      </c>
-      <c r="O37" s="2">
-        <v>5</v>
-      </c>
-      <c r="P37" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2">
-        <v>2</v>
-      </c>
-      <c r="M38" s="2">
-        <v>4</v>
-      </c>
-      <c r="N38" s="2">
-        <v>2</v>
-      </c>
-      <c r="O38" s="2">
-        <v>2</v>
-      </c>
-      <c r="P38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="6">
-        <v>9</v>
-      </c>
-      <c r="F39" s="6">
-        <v>8</v>
-      </c>
-      <c r="G39" s="6">
-        <v>7</v>
-      </c>
-      <c r="H39" s="6">
-        <v>9</v>
-      </c>
-      <c r="I39" s="6">
-        <v>9</v>
-      </c>
-      <c r="J39" s="6">
-        <v>6</v>
-      </c>
-      <c r="K39" s="6">
-        <v>11</v>
-      </c>
-      <c r="L39" s="6">
-        <v>9</v>
-      </c>
-      <c r="M39" s="6">
-        <v>8</v>
-      </c>
-      <c r="N39" s="6">
-        <v>6</v>
-      </c>
-      <c r="O39" s="6">
-        <v>6</v>
-      </c>
-      <c r="P39" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4</v>
-      </c>
-      <c r="F40" s="6">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6">
-        <v>5</v>
-      </c>
-      <c r="H40" s="6">
-        <v>5</v>
-      </c>
-      <c r="I40" s="6">
-        <v>4</v>
-      </c>
-      <c r="J40" s="6">
-        <v>7</v>
-      </c>
-      <c r="K40" s="6">
-        <v>3</v>
-      </c>
-      <c r="L40" s="6">
-        <v>5</v>
-      </c>
-      <c r="M40" s="6">
-        <v>3</v>
-      </c>
-      <c r="N40" s="6">
-        <v>3</v>
-      </c>
-      <c r="O40" s="6">
-        <v>4</v>
-      </c>
-      <c r="P40" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>1</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <v>1</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="6">
-        <v>6</v>
-      </c>
-      <c r="F42" s="6">
-        <v>3</v>
-      </c>
-      <c r="G42" s="6">
-        <v>6</v>
-      </c>
-      <c r="H42" s="6">
-        <v>6</v>
-      </c>
-      <c r="I42" s="6">
-        <v>6</v>
-      </c>
-      <c r="J42" s="6">
-        <v>8</v>
-      </c>
-      <c r="K42" s="6">
-        <v>5</v>
-      </c>
-      <c r="L42" s="6">
-        <v>5</v>
-      </c>
-      <c r="M42" s="6">
-        <v>6</v>
-      </c>
-      <c r="N42" s="6">
-        <v>5</v>
-      </c>
-      <c r="O42" s="6">
-        <v>5</v>
-      </c>
-      <c r="P42" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" s="6">
-        <v>2</v>
-      </c>
-      <c r="G43" s="6">
-        <v>2</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2</v>
-      </c>
-      <c r="I43" s="6">
-        <v>2</v>
-      </c>
-      <c r="J43" s="6">
-        <v>3</v>
-      </c>
-      <c r="K43" s="6">
-        <v>2</v>
-      </c>
-      <c r="L43" s="6">
-        <v>2</v>
-      </c>
-      <c r="M43" s="6">
-        <v>3</v>
-      </c>
-      <c r="N43" s="6">
-        <v>2</v>
-      </c>
-      <c r="O43" s="6">
-        <v>2</v>
-      </c>
-      <c r="P43" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="2">
-        <v>8</v>
-      </c>
-      <c r="F44" s="2">
-        <v>8</v>
-      </c>
-      <c r="G44" s="2">
-        <v>9</v>
-      </c>
-      <c r="H44" s="2">
-        <v>8</v>
-      </c>
-      <c r="I44" s="2">
-        <v>8</v>
-      </c>
-      <c r="J44" s="2">
-        <v>9</v>
-      </c>
-      <c r="K44" s="2">
-        <v>8</v>
-      </c>
-      <c r="L44" s="2">
-        <v>8</v>
-      </c>
-      <c r="M44" s="2">
-        <v>8</v>
-      </c>
-      <c r="N44" s="2">
-        <v>7</v>
-      </c>
-      <c r="O44" s="2">
-        <v>7</v>
-      </c>
-      <c r="P44" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="2">
-        <v>6</v>
-      </c>
-      <c r="F46" s="2">
-        <v>5</v>
-      </c>
-      <c r="G46" s="2">
-        <v>6</v>
-      </c>
-      <c r="H46" s="2">
-        <v>6</v>
-      </c>
-      <c r="I46" s="2">
-        <v>6</v>
-      </c>
-      <c r="J46" s="2">
-        <v>7</v>
-      </c>
-      <c r="K46" s="2">
-        <v>8</v>
-      </c>
-      <c r="L46" s="2">
-        <v>8</v>
-      </c>
-      <c r="M46" s="2">
-        <v>7</v>
-      </c>
-      <c r="N46" s="2">
-        <v>9</v>
-      </c>
-      <c r="O46" s="2">
-        <v>7</v>
-      </c>
-      <c r="P46" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2">
-        <v>4</v>
-      </c>
-      <c r="G47" s="2">
-        <v>4</v>
-      </c>
-      <c r="H47" s="2">
-        <v>5</v>
-      </c>
-      <c r="I47" s="2">
-        <v>3</v>
-      </c>
-      <c r="J47" s="2">
-        <v>3</v>
-      </c>
-      <c r="K47" s="2">
-        <v>4</v>
-      </c>
-      <c r="L47" s="2">
-        <v>3</v>
-      </c>
-      <c r="M47" s="2">
-        <v>4</v>
-      </c>
-      <c r="N47" s="2">
-        <v>4</v>
-      </c>
-      <c r="O47" s="2">
-        <v>4</v>
-      </c>
-      <c r="P47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="6">
-        <v>6</v>
-      </c>
-      <c r="F48" s="6">
-        <v>7</v>
-      </c>
-      <c r="G48" s="6">
-        <v>8</v>
-      </c>
-      <c r="H48" s="6">
-        <v>7</v>
-      </c>
-      <c r="I48" s="6">
-        <v>7</v>
-      </c>
-      <c r="J48" s="6">
-        <v>7</v>
-      </c>
-      <c r="K48" s="6">
-        <v>7</v>
-      </c>
-      <c r="L48" s="6">
-        <v>7</v>
-      </c>
-      <c r="M48" s="6">
-        <v>8</v>
-      </c>
-      <c r="N48" s="6">
-        <v>6</v>
-      </c>
-      <c r="O48" s="6">
-        <v>6</v>
-      </c>
-      <c r="P48" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="6">
-        <v>7</v>
-      </c>
-      <c r="F49" s="6">
-        <v>6</v>
-      </c>
-      <c r="G49" s="6">
-        <v>8</v>
-      </c>
-      <c r="H49" s="6">
-        <v>10</v>
-      </c>
-      <c r="I49" s="6">
-        <v>7</v>
-      </c>
-      <c r="J49" s="6">
-        <v>7</v>
-      </c>
-      <c r="K49" s="6">
-        <v>6</v>
-      </c>
-      <c r="L49" s="6">
-        <v>5</v>
-      </c>
-      <c r="M49" s="6">
-        <v>5</v>
-      </c>
-      <c r="N49" s="6">
-        <v>6</v>
-      </c>
-      <c r="O49" s="6">
-        <v>7</v>
-      </c>
-      <c r="P49" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" s="6">
-        <v>2</v>
-      </c>
-      <c r="G50" s="6">
-        <v>2</v>
-      </c>
-      <c r="H50" s="6">
-        <v>2</v>
-      </c>
-      <c r="I50" s="6">
-        <v>2</v>
-      </c>
-      <c r="J50" s="6">
-        <v>2</v>
-      </c>
-      <c r="K50" s="6">
-        <v>2</v>
-      </c>
-      <c r="L50" s="6">
-        <v>2</v>
-      </c>
-      <c r="M50" s="6">
-        <v>5</v>
-      </c>
-      <c r="N50" s="6">
-        <v>2</v>
-      </c>
-      <c r="O50" s="6">
-        <v>2</v>
-      </c>
-      <c r="P50" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>1</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="2">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2">
-        <v>9</v>
-      </c>
-      <c r="G52" s="2">
-        <v>8</v>
-      </c>
-      <c r="H52" s="2">
-        <v>8</v>
-      </c>
-      <c r="I52" s="2">
-        <v>8</v>
-      </c>
-      <c r="J52" s="2">
-        <v>6</v>
-      </c>
-      <c r="K52" s="2">
-        <v>8</v>
-      </c>
-      <c r="L52" s="2">
-        <v>8</v>
-      </c>
-      <c r="M52" s="2">
-        <v>7</v>
-      </c>
-      <c r="N52" s="2">
-        <v>6</v>
-      </c>
-      <c r="O52" s="2">
-        <v>6</v>
-      </c>
-      <c r="P52" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="6">
-        <v>10</v>
-      </c>
-      <c r="F53" s="6">
-        <v>10</v>
-      </c>
-      <c r="G53" s="6">
-        <v>9</v>
-      </c>
-      <c r="H53" s="6">
-        <v>10</v>
-      </c>
-      <c r="I53" s="6">
-        <v>9</v>
-      </c>
-      <c r="J53" s="6">
-        <v>8</v>
-      </c>
-      <c r="K53" s="6">
-        <v>9</v>
-      </c>
-      <c r="L53" s="6">
-        <v>9</v>
-      </c>
-      <c r="M53" s="6">
-        <v>10</v>
-      </c>
-      <c r="N53" s="6">
-        <v>7</v>
-      </c>
-      <c r="O53" s="6">
-        <v>9</v>
-      </c>
-      <c r="P53" s="6">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -20293,6 +17730,2590 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6">
+        <v>12</v>
+      </c>
+      <c r="N6" s="6">
+        <v>8</v>
+      </c>
+      <c r="O6" s="6">
+        <v>8</v>
+      </c>
+      <c r="P6" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2">
+        <v>16</v>
+      </c>
+      <c r="N7" s="2">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6">
+        <v>11</v>
+      </c>
+      <c r="O8" s="6">
+        <v>10</v>
+      </c>
+      <c r="P8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6">
+        <v>6</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6">
+        <v>6</v>
+      </c>
+      <c r="M9" s="6">
+        <v>11</v>
+      </c>
+      <c r="N9" s="6">
+        <v>6</v>
+      </c>
+      <c r="O9" s="6">
+        <v>6</v>
+      </c>
+      <c r="P9" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8</v>
+      </c>
+      <c r="O10" s="2">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
+        <v>6</v>
+      </c>
+      <c r="L13" s="6">
+        <v>6</v>
+      </c>
+      <c r="M13" s="6">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6">
+        <v>6</v>
+      </c>
+      <c r="O13" s="6">
+        <v>6</v>
+      </c>
+      <c r="P13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6">
+        <v>16</v>
+      </c>
+      <c r="G14" s="6">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6">
+        <v>14</v>
+      </c>
+      <c r="J14" s="6">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6">
+        <v>14</v>
+      </c>
+      <c r="L14" s="6">
+        <v>13</v>
+      </c>
+      <c r="M14" s="6">
+        <v>12</v>
+      </c>
+      <c r="N14" s="6">
+        <v>14</v>
+      </c>
+      <c r="O14" s="6">
+        <v>14</v>
+      </c>
+      <c r="P14" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>7</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6">
+        <v>9</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6">
+        <v>11</v>
+      </c>
+      <c r="M16" s="6">
+        <v>9</v>
+      </c>
+      <c r="N16" s="6">
+        <v>8</v>
+      </c>
+      <c r="O16" s="6">
+        <v>9</v>
+      </c>
+      <c r="P16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6">
+        <v>2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2">
+        <v>11</v>
+      </c>
+      <c r="J19" s="2">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2">
+        <v>14</v>
+      </c>
+      <c r="M19" s="2">
+        <v>10</v>
+      </c>
+      <c r="N19" s="2">
+        <v>12</v>
+      </c>
+      <c r="O19" s="2">
+        <v>12</v>
+      </c>
+      <c r="P19" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>8</v>
+      </c>
+      <c r="N20" s="2">
+        <v>7</v>
+      </c>
+      <c r="O20" s="2">
+        <v>12</v>
+      </c>
+      <c r="P20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6">
+        <v>5</v>
+      </c>
+      <c r="M21" s="6">
+        <v>4</v>
+      </c>
+      <c r="N21" s="6">
+        <v>3</v>
+      </c>
+      <c r="O21" s="6">
+        <v>3</v>
+      </c>
+      <c r="P21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4</v>
+      </c>
+      <c r="K22" s="6">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6">
+        <v>3</v>
+      </c>
+      <c r="M22" s="6">
+        <v>7</v>
+      </c>
+      <c r="N22" s="6">
+        <v>6</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5</v>
+      </c>
+      <c r="P22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6">
+        <v>8</v>
+      </c>
+      <c r="H23" s="6">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6">
+        <v>10</v>
+      </c>
+      <c r="K23" s="6">
+        <v>9</v>
+      </c>
+      <c r="L23" s="6">
+        <v>10</v>
+      </c>
+      <c r="M23" s="6">
+        <v>9</v>
+      </c>
+      <c r="N23" s="6">
+        <v>6</v>
+      </c>
+      <c r="O23" s="6">
+        <v>7</v>
+      </c>
+      <c r="P23" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2</v>
+      </c>
+      <c r="O24" s="6">
+        <v>3</v>
+      </c>
+      <c r="P24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5</v>
+      </c>
+      <c r="I25" s="6">
+        <v>3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2</v>
+      </c>
+      <c r="L25" s="6">
+        <v>2</v>
+      </c>
+      <c r="M25" s="6">
+        <v>3</v>
+      </c>
+      <c r="N25" s="6">
+        <v>2</v>
+      </c>
+      <c r="O25" s="6">
+        <v>2</v>
+      </c>
+      <c r="P25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>16</v>
+      </c>
+      <c r="I27" s="2">
+        <v>12</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>11</v>
+      </c>
+      <c r="L27" s="2">
+        <v>12</v>
+      </c>
+      <c r="M27" s="2">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2">
+        <v>12</v>
+      </c>
+      <c r="O27" s="2">
+        <v>12</v>
+      </c>
+      <c r="P27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>7</v>
+      </c>
+      <c r="G28" s="6">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6">
+        <v>11</v>
+      </c>
+      <c r="I28" s="6">
+        <v>8</v>
+      </c>
+      <c r="J28" s="6">
+        <v>9</v>
+      </c>
+      <c r="K28" s="6">
+        <v>9</v>
+      </c>
+      <c r="L28" s="6">
+        <v>9</v>
+      </c>
+      <c r="M28" s="6">
+        <v>10</v>
+      </c>
+      <c r="N28" s="6">
+        <v>8</v>
+      </c>
+      <c r="O28" s="6">
+        <v>7</v>
+      </c>
+      <c r="P28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4</v>
+      </c>
+      <c r="L29" s="2">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2">
+        <v>7</v>
+      </c>
+      <c r="N29" s="2">
+        <v>6</v>
+      </c>
+      <c r="O29" s="2">
+        <v>4</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>8</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4</v>
+      </c>
+      <c r="K31" s="2">
+        <v>6</v>
+      </c>
+      <c r="L31" s="2">
+        <v>6</v>
+      </c>
+      <c r="M31" s="2">
+        <v>5</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>5</v>
+      </c>
+      <c r="P31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+      <c r="H32" s="6">
+        <v>8</v>
+      </c>
+      <c r="I32" s="6">
+        <v>8</v>
+      </c>
+      <c r="J32" s="6">
+        <v>8</v>
+      </c>
+      <c r="K32" s="6">
+        <v>7</v>
+      </c>
+      <c r="L32" s="6">
+        <v>7</v>
+      </c>
+      <c r="M32" s="6">
+        <v>6</v>
+      </c>
+      <c r="N32" s="6">
+        <v>7</v>
+      </c>
+      <c r="O32" s="6">
+        <v>7</v>
+      </c>
+      <c r="P32" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6">
+        <v>5</v>
+      </c>
+      <c r="J33" s="6">
+        <v>6</v>
+      </c>
+      <c r="K33" s="6">
+        <v>5</v>
+      </c>
+      <c r="L33" s="6">
+        <v>11</v>
+      </c>
+      <c r="M33" s="6">
+        <v>6</v>
+      </c>
+      <c r="N33" s="6">
+        <v>4</v>
+      </c>
+      <c r="O33" s="6">
+        <v>12</v>
+      </c>
+      <c r="P33" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9</v>
+      </c>
+      <c r="J34" s="2">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2">
+        <v>9</v>
+      </c>
+      <c r="L34" s="2">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2">
+        <v>10</v>
+      </c>
+      <c r="N34" s="2">
+        <v>10</v>
+      </c>
+      <c r="O34" s="2">
+        <v>10</v>
+      </c>
+      <c r="P34" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>5</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>5</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2">
+        <v>8</v>
+      </c>
+      <c r="K37" s="2">
+        <v>4</v>
+      </c>
+      <c r="L37" s="2">
+        <v>5</v>
+      </c>
+      <c r="M37" s="2">
+        <v>7</v>
+      </c>
+      <c r="N37" s="2">
+        <v>5</v>
+      </c>
+      <c r="O37" s="2">
+        <v>5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2">
+        <v>2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2</v>
+      </c>
+      <c r="P38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="6">
+        <v>9</v>
+      </c>
+      <c r="F39" s="6">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6">
+        <v>9</v>
+      </c>
+      <c r="I39" s="6">
+        <v>9</v>
+      </c>
+      <c r="J39" s="6">
+        <v>6</v>
+      </c>
+      <c r="K39" s="6">
+        <v>11</v>
+      </c>
+      <c r="L39" s="6">
+        <v>9</v>
+      </c>
+      <c r="M39" s="6">
+        <v>8</v>
+      </c>
+      <c r="N39" s="6">
+        <v>6</v>
+      </c>
+      <c r="O39" s="6">
+        <v>6</v>
+      </c>
+      <c r="P39" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6">
+        <v>5</v>
+      </c>
+      <c r="I40" s="6">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6">
+        <v>7</v>
+      </c>
+      <c r="K40" s="6">
+        <v>3</v>
+      </c>
+      <c r="L40" s="6">
+        <v>5</v>
+      </c>
+      <c r="M40" s="6">
+        <v>3</v>
+      </c>
+      <c r="N40" s="6">
+        <v>3</v>
+      </c>
+      <c r="O40" s="6">
+        <v>4</v>
+      </c>
+      <c r="P40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="6">
+        <v>6</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3</v>
+      </c>
+      <c r="G42" s="6">
+        <v>6</v>
+      </c>
+      <c r="H42" s="6">
+        <v>6</v>
+      </c>
+      <c r="I42" s="6">
+        <v>6</v>
+      </c>
+      <c r="J42" s="6">
+        <v>8</v>
+      </c>
+      <c r="K42" s="6">
+        <v>5</v>
+      </c>
+      <c r="L42" s="6">
+        <v>5</v>
+      </c>
+      <c r="M42" s="6">
+        <v>6</v>
+      </c>
+      <c r="N42" s="6">
+        <v>5</v>
+      </c>
+      <c r="O42" s="6">
+        <v>5</v>
+      </c>
+      <c r="P42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2</v>
+      </c>
+      <c r="J43" s="6">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6">
+        <v>2</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2</v>
+      </c>
+      <c r="M43" s="6">
+        <v>3</v>
+      </c>
+      <c r="N43" s="6">
+        <v>2</v>
+      </c>
+      <c r="O43" s="6">
+        <v>2</v>
+      </c>
+      <c r="P43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2">
+        <v>9</v>
+      </c>
+      <c r="H44" s="2">
+        <v>8</v>
+      </c>
+      <c r="I44" s="2">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9</v>
+      </c>
+      <c r="K44" s="2">
+        <v>8</v>
+      </c>
+      <c r="L44" s="2">
+        <v>8</v>
+      </c>
+      <c r="M44" s="2">
+        <v>8</v>
+      </c>
+      <c r="N44" s="2">
+        <v>7</v>
+      </c>
+      <c r="O44" s="2">
+        <v>7</v>
+      </c>
+      <c r="P44" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2">
+        <v>6</v>
+      </c>
+      <c r="I46" s="2">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2">
+        <v>7</v>
+      </c>
+      <c r="K46" s="2">
+        <v>8</v>
+      </c>
+      <c r="L46" s="2">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2">
+        <v>7</v>
+      </c>
+      <c r="N46" s="2">
+        <v>9</v>
+      </c>
+      <c r="O46" s="2">
+        <v>7</v>
+      </c>
+      <c r="P46" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4</v>
+      </c>
+      <c r="H47" s="2">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>3</v>
+      </c>
+      <c r="K47" s="2">
+        <v>4</v>
+      </c>
+      <c r="L47" s="2">
+        <v>3</v>
+      </c>
+      <c r="M47" s="2">
+        <v>4</v>
+      </c>
+      <c r="N47" s="2">
+        <v>4</v>
+      </c>
+      <c r="O47" s="2">
+        <v>4</v>
+      </c>
+      <c r="P47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="6">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6">
+        <v>8</v>
+      </c>
+      <c r="H48" s="6">
+        <v>7</v>
+      </c>
+      <c r="I48" s="6">
+        <v>7</v>
+      </c>
+      <c r="J48" s="6">
+        <v>7</v>
+      </c>
+      <c r="K48" s="6">
+        <v>7</v>
+      </c>
+      <c r="L48" s="6">
+        <v>7</v>
+      </c>
+      <c r="M48" s="6">
+        <v>8</v>
+      </c>
+      <c r="N48" s="6">
+        <v>6</v>
+      </c>
+      <c r="O48" s="6">
+        <v>6</v>
+      </c>
+      <c r="P48" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="6">
+        <v>7</v>
+      </c>
+      <c r="F49" s="6">
+        <v>6</v>
+      </c>
+      <c r="G49" s="6">
+        <v>8</v>
+      </c>
+      <c r="H49" s="6">
+        <v>10</v>
+      </c>
+      <c r="I49" s="6">
+        <v>7</v>
+      </c>
+      <c r="J49" s="6">
+        <v>7</v>
+      </c>
+      <c r="K49" s="6">
+        <v>6</v>
+      </c>
+      <c r="L49" s="6">
+        <v>5</v>
+      </c>
+      <c r="M49" s="6">
+        <v>5</v>
+      </c>
+      <c r="N49" s="6">
+        <v>6</v>
+      </c>
+      <c r="O49" s="6">
+        <v>7</v>
+      </c>
+      <c r="P49" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>5</v>
+      </c>
+      <c r="N50" s="6">
+        <v>2</v>
+      </c>
+      <c r="O50" s="6">
+        <v>2</v>
+      </c>
+      <c r="P50" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2">
+        <v>8</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>6</v>
+      </c>
+      <c r="K52" s="2">
+        <v>8</v>
+      </c>
+      <c r="L52" s="2">
+        <v>8</v>
+      </c>
+      <c r="M52" s="2">
+        <v>7</v>
+      </c>
+      <c r="N52" s="2">
+        <v>6</v>
+      </c>
+      <c r="O52" s="2">
+        <v>6</v>
+      </c>
+      <c r="P52" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="6">
+        <v>10</v>
+      </c>
+      <c r="F53" s="6">
+        <v>10</v>
+      </c>
+      <c r="G53" s="6">
+        <v>9</v>
+      </c>
+      <c r="H53" s="6">
+        <v>10</v>
+      </c>
+      <c r="I53" s="6">
+        <v>9</v>
+      </c>
+      <c r="J53" s="6">
+        <v>8</v>
+      </c>
+      <c r="K53" s="6">
+        <v>9</v>
+      </c>
+      <c r="L53" s="6">
+        <v>9</v>
+      </c>
+      <c r="M53" s="6">
+        <v>10</v>
+      </c>
+      <c r="N53" s="6">
+        <v>7</v>
+      </c>
+      <c r="O53" s="6">
+        <v>9</v>
+      </c>
+      <c r="P53" s="6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
@@ -21693,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21781,7 +21802,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
@@ -21976,7 +21997,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
@@ -21993,7 +22014,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>61</v>
@@ -22010,7 +22031,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>62</v>
@@ -22027,7 +22048,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>147</v>
@@ -22044,7 +22065,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>149</v>
@@ -22180,7 +22201,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>80</v>
@@ -22197,7 +22218,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>154</v>
@@ -22214,7 +22235,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>155</v>
@@ -22231,7 +22252,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>156</v>
@@ -22248,7 +22269,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
@@ -22265,7 +22286,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>66</v>
@@ -22282,7 +22303,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>157</v>
@@ -22291,7 +22312,7 @@
         <v>157</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E35" s="2">
         <v>6</v>
@@ -22299,7 +22320,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>159</v>
